--- a/TrainingData/MiscFiles/TimeSweep80Bar130C.xlsx
+++ b/TrainingData/MiscFiles/TimeSweep80Bar130C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\TrainingData\MiscFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B490C9B-731E-46CA-BD19-014BE040F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B522F6-77CE-4F34-B483-68606312F54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
+    <workbookView xWindow="7650" yWindow="1245" windowWidth="29010" windowHeight="15450" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,8 +483,8 @@
         <v>0.01</v>
       </c>
       <c r="I2">
-        <f>2*PI()*H2^3*D2/3/G2</f>
-        <v>6.6882413199824313</v>
+        <f>1*PI()*H2^4*D2/2/G2</f>
+        <v>5.016180989986823E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -515,8 +515,8 @@
         <v>0.01</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">2*PI()*H3^3*D3/3/G3</f>
-        <v>6.4679109552106668</v>
+        <f>1*PI()*H3^4*D3/2/G3</f>
+        <v>4.8509332164079995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -547,8 +547,8 @@
         <v>0.01</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
-        <v>6.2741794082392968</v>
+        <f>1*PI()*H4^4*D4/2/G4</f>
+        <v>4.7056345561794714E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -579,8 +579,8 @@
         <v>0.01</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>6.0886160021672602</v>
+        <f>1*PI()*H5^4*D5/2/G5</f>
+        <v>4.5664620016254438E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -611,8 +611,8 @@
         <v>0.01</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>5.9116396160150337</v>
+        <f>1*PI()*H6^4*D6/2/G6</f>
+        <v>4.4337297120112744E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -643,8 +643,8 @@
         <v>0.01</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>5.7355009879037668</v>
+        <f>1*PI()*H7^4*D7/2/G7</f>
+        <v>4.3016257409278238E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -675,8 +675,8 @@
         <v>0.01</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>5.5949670765331829</v>
+        <f>1*PI()*H8^4*D8/2/G8</f>
+        <v>4.1962253073998868E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -707,8 +707,8 @@
         <v>0.01</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>5.3834331711914709</v>
+        <f>1*PI()*H9^4*D9/2/G9</f>
+        <v>4.0375748783936023E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -739,8 +739,8 @@
         <v>0.01</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>5.2558845094557256</v>
+        <f>1*PI()*H10^4*D10/2/G10</f>
+        <v>3.9419133820917926E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -771,8 +771,8 @@
         <v>0.01</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>5.1233092994742355</v>
+        <f>1*PI()*H11^4*D11/2/G11</f>
+        <v>3.8424819746056757E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -803,8 +803,8 @@
         <v>0.01</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>5.0056042947197374</v>
+        <f>1*PI()*H12^4*D12/2/G12</f>
+        <v>3.7542032210398021E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,8 +835,8 @@
         <v>0.01</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>4.948427308424403</v>
+        <f>1*PI()*H13^4*D13/2/G13</f>
+        <v>3.7113204813183018E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,8 +867,8 @@
         <v>0.01</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>4.8122916267688458</v>
+        <f>1*PI()*H14^4*D14/2/G14</f>
+        <v>3.6092187200766332E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -899,8 +899,8 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>4.6991942912396132</v>
+        <f>1*PI()*H15^4*D15/2/G15</f>
+        <v>3.5243957184297091E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -931,8 +931,8 @@
         <v>0.01</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
-        <v>4.590704624935646</v>
+        <f>1*PI()*H16^4*D16/2/G16</f>
+        <v>3.4430284687017344E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,8 +963,8 @@
         <v>0.01</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
-        <v>4.4903830995310114</v>
+        <f>1*PI()*H17^4*D17/2/G17</f>
+        <v>3.3677873246482581E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -995,8 +995,8 @@
         <v>0.01</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>4.3923654087390105</v>
+        <f>1*PI()*H18^4*D18/2/G18</f>
+        <v>3.2942740565542569E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1027,8 +1027,8 @@
         <v>0.01</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
-        <v>4.3002120242337094</v>
+        <f>1*PI()*H19^4*D19/2/G19</f>
+        <v>3.2251590181752811E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1059,8 +1059,8 @@
         <v>0.01</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
-        <v>4.2179022967096564</v>
+        <f>1*PI()*H20^4*D20/2/G20</f>
+        <v>3.1634267225322428E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1091,8 +1091,8 @@
         <v>0.01</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
-        <v>4.1437607100849378</v>
+        <f>1*PI()*H21^4*D21/2/G21</f>
+        <v>3.1078205325637029E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1123,8 +1123,8 @@
         <v>0.01</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
-        <v>4.0650114542349538</v>
+        <f>1*PI()*H22^4*D22/2/G22</f>
+        <v>3.0487585906762149E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1155,8 +1155,8 @@
         <v>0.01</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
-        <v>3.9902415490795171</v>
+        <f>1*PI()*H23^4*D23/2/G23</f>
+        <v>2.992681161809637E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1187,8 +1187,8 @@
         <v>0.01</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
-        <v>3.9096073376373788</v>
+        <f>1*PI()*H24^4*D24/2/G24</f>
+        <v>2.9322055032280334E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1219,8 +1219,8 @@
         <v>0.01</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
-        <v>3.8373507066048131</v>
+        <f>1*PI()*H25^4*D25/2/G25</f>
+        <v>2.8780130299536095E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1251,8 +1251,8 @@
         <v>0.01</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
-        <v>3.7831058734528291</v>
+        <f>1*PI()*H26^4*D26/2/G26</f>
+        <v>2.8373294050896215E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1283,8 +1283,8 @@
         <v>0.01</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
-        <v>3.7305365563827606</v>
+        <f>1*PI()*H27^4*D27/2/G27</f>
+        <v>2.7979024172870695E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1315,8 +1315,8 @@
         <v>0.01</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
-        <v>3.6145070677101772</v>
+        <f>1*PI()*H28^4*D28/2/G28</f>
+        <v>2.7108803007826324E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,8 +1347,8 @@
         <v>0.01</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
-        <v>3.572409726152074</v>
+        <f>1*PI()*H29^4*D29/2/G29</f>
+        <v>2.6793072946140552E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1379,8 +1379,8 @@
         <v>0.01</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
-        <v>3.4720882007474398</v>
+        <f>1*PI()*H30^4*D30/2/G30</f>
+        <v>2.6040661505605793E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1411,8 +1411,8 @@
         <v>0.01</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
-        <v>3.4364834840067555</v>
+        <f>1*PI()*H31^4*D31/2/G31</f>
+        <v>2.5773626130050662E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1443,8 +1443,8 @@
         <v>0.01</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
-        <v>3.3795159372216603</v>
+        <f>1*PI()*H32^4*D32/2/G32</f>
+        <v>2.5346369529162447E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1475,8 +1475,8 @@
         <v>0.01</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
-        <v>3.2955306936156936</v>
+        <f>1*PI()*H33^4*D33/2/G33</f>
+        <v>2.4716480202117697E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1507,8 +1507,8 @@
         <v>0.01</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
-        <v>3.1937430916393845</v>
+        <f>1*PI()*H34^4*D34/2/G34</f>
+        <v>2.3953073187295379E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,8 +1539,8 @@
         <v>0.01</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
-        <v>3.1727991406154525</v>
+        <f>1*PI()*H35^4*D35/2/G35</f>
+        <v>2.3795993554615886E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1571,8 +1571,8 @@
         <v>0.01</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
-        <v>3.1489230364481702</v>
+        <f>1*PI()*H36^4*D36/2/G36</f>
+        <v>2.3616922773361269E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1603,8 +1603,8 @@
         <v>0.01</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
-        <v>3.0762475263951261</v>
+        <f>1*PI()*H37^4*D37/2/G37</f>
+        <v>2.3071856447963439E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1635,8 +1635,8 @@
         <v>0.01</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
-        <v>3.0427372047568348</v>
+        <f>1*PI()*H38^4*D38/2/G38</f>
+        <v>2.2820529035676256E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1667,8 +1667,8 @@
         <v>0.01</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
-        <v>3.0037814558523217</v>
+        <f>1*PI()*H39^4*D39/2/G39</f>
+        <v>2.2528360918892407E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,8 +1699,8 @@
         <v>0.01</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
-        <v>2.9428345583726792</v>
+        <f>1*PI()*H40^4*D40/2/G40</f>
+        <v>2.2071259187795088E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1731,8 +1731,8 @@
         <v>0.01</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
-        <v>2.8764422336268152</v>
+        <f>1*PI()*H41^4*D41/2/G41</f>
+        <v>2.1573316752201109E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,8 +1763,8 @@
         <v>0.01</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
-        <v>2.8391620008042158</v>
+        <f>1*PI()*H42^4*D42/2/G42</f>
+        <v>2.1293715006031617E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1795,8 +1795,8 @@
         <v>0.01</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
-        <v>2.8018817679816173</v>
+        <f>1*PI()*H43^4*D43/2/G43</f>
+        <v>2.1014113259862122E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1827,8 +1827,8 @@
         <v>0.01</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
-        <v>2.7884776393263011</v>
+        <f>1*PI()*H44^4*D44/2/G44</f>
+        <v>2.0913582294947254E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1859,8 +1859,8 @@
         <v>0.01</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
-        <v>2.7622977005463865</v>
+        <f>1*PI()*H45^4*D45/2/G45</f>
+        <v>2.071723275409789E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1891,8 +1891,8 @@
         <v>0.01</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
-        <v>2.6940204202083677</v>
+        <f>1*PI()*H46^4*D46/2/G46</f>
+        <v>2.0205153151562752E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1923,8 +1923,8 @@
         <v>0.01</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
-        <v>2.6098257370921614</v>
+        <f>1*PI()*H47^4*D47/2/G47</f>
+        <v>1.9573693028191202E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,8 +1955,8 @@
         <v>0.01</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
-        <v>2.5970499269675629</v>
+        <f>1*PI()*H48^4*D48/2/G48</f>
+        <v>1.9477874452256714E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1987,8 +1987,8 @@
         <v>0.01</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
-        <v>2.5229083403428438</v>
+        <f>1*PI()*H49^4*D49/2/G49</f>
+        <v>1.8921812552571322E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2019,8 +2019,8 @@
         <v>0.01</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
-        <v>2.4736900554366033</v>
+        <f>1*PI()*H50^4*D50/2/G50</f>
+        <v>1.8552675415774524E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,8 +2051,8 @@
         <v>0.01</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
-        <v>2.4632180799246375</v>
+        <f>1*PI()*H51^4*D51/2/G51</f>
+        <v>1.8474135599434775E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2083,8 +2083,8 @@
         <v>0.01</v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
-        <v>2.3953596786070981</v>
+        <f>1*PI()*H52^4*D52/2/G52</f>
+        <v>1.7965197589553231E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2115,8 +2115,8 @@
         <v>0.01</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
-        <v>2.3528434580285165</v>
+        <f>1*PI()*H53^4*D53/2/G53</f>
+        <v>1.7646325935213869E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2147,8 +2147,8 @@
         <v>0.01</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
-        <v>2.3153537856956783</v>
+        <f>1*PI()*H54^4*D54/2/G54</f>
+        <v>1.7365153392717582E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2179,8 +2179,8 @@
         <v>0.01</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
-        <v>2.2822623430778655</v>
+        <f>1*PI()*H55^4*D55/2/G55</f>
+        <v>1.7116967573083987E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2211,8 +2211,8 @@
         <v>0.01</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
-        <v>2.2533596906648392</v>
+        <f>1*PI()*H56^4*D56/2/G56</f>
+        <v>1.6900197679986292E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2243,8 +2243,8 @@
         <v>0.01</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
-        <v>2.2200588085367876</v>
+        <f>1*PI()*H57^4*D57/2/G57</f>
+        <v>1.6650441064025905E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2275,8 +2275,8 @@
         <v>0.01</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
-        <v>2.197439341430941</v>
+        <f>1*PI()*H58^4*D58/2/G58</f>
+        <v>1.6480795060732054E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2307,8 +2307,8 @@
         <v>0.01</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
-        <v>2.1656045358745644</v>
+        <f>1*PI()*H59^4*D59/2/G59</f>
+        <v>1.6242034019059232E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2339,8 +2339,8 @@
         <v>0.01</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
-        <v>2.1360735649308205</v>
+        <f>1*PI()*H60^4*D60/2/G60</f>
+        <v>1.6020551736981151E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2371,8 +2371,8 @@
         <v>0.01</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
-        <v>2.1188995250911962</v>
+        <f>1*PI()*H61^4*D61/2/G61</f>
+        <v>1.589174643818397E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2403,8 +2403,8 @@
         <v>0.01</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
-        <v>2.0983744530877426</v>
+        <f>1*PI()*H62^4*D62/2/G62</f>
+        <v>1.5737808398158068E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2435,8 +2435,8 @@
         <v>0.01</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
-        <v>2.0728018888875219</v>
+        <f>1*PI()*H63^4*D63/2/G63</f>
+        <v>1.5546014166656413E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2467,8 +2467,8 @@
         <v>0.01</v>
       </c>
       <c r="I64">
-        <f t="shared" si="2"/>
-        <v>2.057387140933908</v>
+        <f>1*PI()*H64^4*D64/2/G64</f>
+        <v>1.5430403557004308E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2499,8 +2499,8 @@
         <v>0.01</v>
       </c>
       <c r="I65">
-        <f t="shared" si="2"/>
-        <v>2.0446322747603336</v>
+        <f>1*PI()*H65^4*D65/2/G65</f>
+        <v>1.5334742060702497E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2531,8 +2531,8 @@
         <v>0.01</v>
       </c>
       <c r="I66">
-        <f t="shared" si="2"/>
-        <v>2.0216148725850323</v>
+        <f>1*PI()*H66^4*D66/2/G66</f>
+        <v>1.5162111544387739E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,11 +2540,11 @@
         <v>132</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B91" si="3">A67*60</f>
+        <f t="shared" ref="B67:B91" si="2">A67*60</f>
         <v>7920</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C91" si="4">B67/10800</f>
+        <f t="shared" ref="C67:C91" si="3">B67/10800</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="D67">
@@ -2563,8 +2563,8 @@
         <v>0.01</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I91" si="5">2*PI()*H67^3*D67/3/G67</f>
-        <v>2.0049644315210062</v>
+        <f>1*PI()*H67^4*D67/2/G67</f>
+        <v>1.5037233236407543E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2572,11 +2572,11 @@
         <v>134</v>
       </c>
       <c r="B68">
+        <f t="shared" si="2"/>
+        <v>8040</v>
+      </c>
+      <c r="C68">
         <f t="shared" si="3"/>
-        <v>8040</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="4"/>
         <v>0.74444444444444446</v>
       </c>
       <c r="D68">
@@ -2595,8 +2595,8 @@
         <v>0.01</v>
       </c>
       <c r="I68">
-        <f t="shared" si="5"/>
-        <v>1.9832036664071411</v>
+        <f>1*PI()*H68^4*D68/2/G68</f>
+        <v>1.4874027498053555E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2604,11 +2604,11 @@
         <v>136</v>
       </c>
       <c r="B69">
+        <f t="shared" si="2"/>
+        <v>8160</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="3"/>
-        <v>8160</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="4"/>
         <v>0.75555555555555554</v>
       </c>
       <c r="D69">
@@ -2627,8 +2627,8 @@
         <v>0.01</v>
       </c>
       <c r="I69">
-        <f t="shared" si="5"/>
-        <v>1.9981995353402764</v>
+        <f>1*PI()*H69^4*D69/2/G69</f>
+        <v>1.4986496515052071E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2636,11 +2636,11 @@
         <v>138</v>
       </c>
       <c r="B70">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="3"/>
-        <v>8280</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="4"/>
         <v>0.76666666666666672</v>
       </c>
       <c r="D70">
@@ -2659,8 +2659,8 @@
         <v>0.01</v>
       </c>
       <c r="I70">
-        <f t="shared" si="5"/>
-        <v>1.9419231389389713</v>
+        <f>1*PI()*H70^4*D70/2/G70</f>
+        <v>1.4564423542042283E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2668,11 +2668,11 @@
         <v>140</v>
       </c>
       <c r="B71">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="3"/>
-        <v>8400</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="4"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="D71">
@@ -2691,8 +2691,8 @@
         <v>0.01</v>
       </c>
       <c r="I71">
-        <f t="shared" si="5"/>
-        <v>1.9330847916068719</v>
+        <f>1*PI()*H71^4*D71/2/G71</f>
+        <v>1.4498135937051536E-2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2700,11 +2700,11 @@
         <v>142</v>
       </c>
       <c r="B72">
+        <f t="shared" si="2"/>
+        <v>8520</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="3"/>
-        <v>8520</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="4"/>
         <v>0.78888888888888886</v>
       </c>
       <c r="D72">
@@ -2723,8 +2723,8 @@
         <v>0.01</v>
       </c>
       <c r="I72">
-        <f t="shared" si="5"/>
-        <v>1.8904219633711223</v>
+        <f>1*PI()*H72^4*D72/2/G72</f>
+        <v>1.4178164725283415E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2732,11 +2732,11 @@
         <v>144</v>
       </c>
       <c r="B73">
+        <f t="shared" si="2"/>
+        <v>8640</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="3"/>
-        <v>8640</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="D73">
@@ -2755,8 +2755,8 @@
         <v>0.01</v>
       </c>
       <c r="I73">
-        <f t="shared" si="5"/>
-        <v>1.8782954157282661</v>
+        <f>1*PI()*H73^4*D73/2/G73</f>
+        <v>1.4087215617961991E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2764,11 +2764,11 @@
         <v>146</v>
       </c>
       <c r="B74">
+        <f t="shared" si="2"/>
+        <v>8760</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="3"/>
-        <v>8760</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="4"/>
         <v>0.81111111111111112</v>
       </c>
       <c r="D74">
@@ -2787,8 +2787,8 @@
         <v>0.01</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
-        <v>1.8742532331806467</v>
+        <f>1*PI()*H74^4*D74/2/G74</f>
+        <v>1.4056899248854849E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2796,11 +2796,11 @@
         <v>148</v>
       </c>
       <c r="B75">
+        <f t="shared" si="2"/>
+        <v>8880</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="3"/>
-        <v>8880</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="4"/>
         <v>0.82222222222222219</v>
       </c>
       <c r="D75">
@@ -2819,8 +2819,8 @@
         <v>0.01</v>
       </c>
       <c r="I75">
-        <f t="shared" si="5"/>
-        <v>1.847507807723086</v>
+        <f>1*PI()*H75^4*D75/2/G75</f>
+        <v>1.3856308557923141E-2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,11 +2828,11 @@
         <v>150</v>
       </c>
       <c r="B76">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="D76">
@@ -2851,8 +2851,8 @@
         <v>0.01</v>
       </c>
       <c r="I76">
-        <f t="shared" si="5"/>
-        <v>1.8199246242245675</v>
+        <f>1*PI()*H76^4*D76/2/G76</f>
+        <v>1.3649434681684253E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2860,11 +2860,11 @@
         <v>152</v>
       </c>
       <c r="B77">
+        <f t="shared" si="2"/>
+        <v>9120</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="3"/>
-        <v>9120</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="4"/>
         <v>0.84444444444444444</v>
       </c>
       <c r="D77">
@@ -2883,8 +2883,8 @@
         <v>0.01</v>
       </c>
       <c r="I77">
-        <f t="shared" si="5"/>
-        <v>1.8045727081240255</v>
+        <f>1*PI()*H77^4*D77/2/G77</f>
+        <v>1.3534295310930188E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2892,11 +2892,11 @@
         <v>154</v>
       </c>
       <c r="B78">
+        <f t="shared" si="2"/>
+        <v>9240</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="3"/>
-        <v>9240</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="4"/>
         <v>0.85555555555555551</v>
       </c>
       <c r="D78">
@@ -2915,8 +2915,8 @@
         <v>0.01</v>
       </c>
       <c r="I78">
-        <f t="shared" si="5"/>
-        <v>1.7811783148302933</v>
+        <f>1*PI()*H78^4*D78/2/G78</f>
+        <v>1.3358837361227198E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2924,11 +2924,11 @@
         <v>156</v>
       </c>
       <c r="B79">
+        <f t="shared" si="2"/>
+        <v>9360</v>
+      </c>
+      <c r="C79">
         <f t="shared" si="3"/>
-        <v>9360</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="4"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="D79">
@@ -2947,8 +2947,8 @@
         <v>0.01</v>
       </c>
       <c r="I79">
-        <f t="shared" si="5"/>
-        <v>1.7746856900128745</v>
+        <f>1*PI()*H79^4*D79/2/G79</f>
+        <v>1.3310142675096556E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2956,11 +2956,11 @@
         <v>158</v>
       </c>
       <c r="B80">
+        <f t="shared" si="2"/>
+        <v>9480</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="3"/>
-        <v>9480</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="4"/>
         <v>0.87777777777777777</v>
       </c>
       <c r="D80">
@@ -2979,8 +2979,8 @@
         <v>0.01</v>
       </c>
       <c r="I80">
-        <f t="shared" si="5"/>
-        <v>1.7586426235285426</v>
+        <f>1*PI()*H80^4*D80/2/G80</f>
+        <v>1.3189819676464067E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2988,11 +2988,11 @@
         <v>160</v>
       </c>
       <c r="B81">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+      <c r="C81">
         <f t="shared" si="3"/>
-        <v>9600</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="D81">
@@ -3011,8 +3011,8 @@
         <v>0.01</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
-        <v>1.7487151907431988</v>
+        <f>1*PI()*H81^4*D81/2/G81</f>
+        <v>1.3115363930573989E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,11 +3020,11 @@
         <v>162</v>
       </c>
       <c r="B82">
+        <f t="shared" si="2"/>
+        <v>9720</v>
+      </c>
+      <c r="C82">
         <f t="shared" si="3"/>
-        <v>9720</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="D82">
@@ -3043,8 +3043,8 @@
         <v>0.01</v>
       </c>
       <c r="I82">
-        <f t="shared" si="5"/>
-        <v>1.7370284660718447</v>
+        <f>1*PI()*H82^4*D82/2/G82</f>
+        <v>1.3027713495538834E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3052,11 +3052,11 @@
         <v>164</v>
       </c>
       <c r="B83">
+        <f t="shared" si="2"/>
+        <v>9840</v>
+      </c>
+      <c r="C83">
         <f t="shared" si="3"/>
-        <v>9840</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
       <c r="D83">
@@ -3075,8 +3075,8 @@
         <v>0.01</v>
       </c>
       <c r="I83">
-        <f t="shared" si="5"/>
-        <v>1.7258025083230173</v>
+        <f>1*PI()*H83^4*D83/2/G83</f>
+        <v>1.2943518812422627E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,11 +3084,11 @@
         <v>166</v>
       </c>
       <c r="B84">
+        <f t="shared" si="2"/>
+        <v>9960</v>
+      </c>
+      <c r="C84">
         <f t="shared" si="3"/>
-        <v>9960</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="4"/>
         <v>0.92222222222222228</v>
       </c>
       <c r="D84">
@@ -3107,8 +3107,8 @@
         <v>0.01</v>
       </c>
       <c r="I84">
-        <f t="shared" si="5"/>
-        <v>1.7133618014148018</v>
+        <f>1*PI()*H84^4*D84/2/G84</f>
+        <v>1.2850213510611011E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3116,11 +3116,11 @@
         <v>168</v>
       </c>
       <c r="B85">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
+      <c r="C85">
         <f t="shared" si="3"/>
-        <v>10080</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="D85">
@@ -3139,8 +3139,8 @@
         <v>0.01</v>
       </c>
       <c r="I85">
-        <f t="shared" si="5"/>
-        <v>1.7049423331031808</v>
+        <f>1*PI()*H85^4*D85/2/G85</f>
+        <v>1.2787067498273854E-2</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3148,11 +3148,11 @@
         <v>170</v>
       </c>
       <c r="B86">
+        <f t="shared" si="2"/>
+        <v>10200</v>
+      </c>
+      <c r="C86">
         <f t="shared" si="3"/>
-        <v>10200</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="4"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="D86">
@@ -3171,8 +3171,8 @@
         <v>0.01</v>
       </c>
       <c r="I86">
-        <f t="shared" si="5"/>
-        <v>1.6735054626162591</v>
+        <f>1*PI()*H86^4*D86/2/G86</f>
+        <v>1.2551290969621941E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3180,11 +3180,11 @@
         <v>172</v>
       </c>
       <c r="B87">
+        <f t="shared" si="2"/>
+        <v>10320</v>
+      </c>
+      <c r="C87">
         <f t="shared" si="3"/>
-        <v>10320</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
       <c r="D87">
@@ -3203,8 +3203,8 @@
         <v>0.01</v>
       </c>
       <c r="I87">
-        <f t="shared" si="5"/>
-        <v>1.678155019743572</v>
+        <f>1*PI()*H87^4*D87/2/G87</f>
+        <v>1.2586162648076788E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3212,11 +3212,11 @@
         <v>174</v>
       </c>
       <c r="B88">
+        <f t="shared" si="2"/>
+        <v>10440</v>
+      </c>
+      <c r="C88">
         <f t="shared" si="3"/>
-        <v>10440</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="D88">
@@ -3235,8 +3235,8 @@
         <v>0.01</v>
       </c>
       <c r="I88">
-        <f t="shared" si="5"/>
-        <v>1.6530432224658778</v>
+        <f>1*PI()*H88^4*D88/2/G88</f>
+        <v>1.239782416849408E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3244,11 +3244,11 @@
         <v>176</v>
       </c>
       <c r="B89">
+        <f t="shared" si="2"/>
+        <v>10560</v>
+      </c>
+      <c r="C89">
         <f t="shared" si="3"/>
-        <v>10560</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
       <c r="D89">
@@ -3267,8 +3267,8 @@
         <v>0.01</v>
       </c>
       <c r="I89">
-        <f t="shared" si="5"/>
-        <v>1.6606668206385888</v>
+        <f>1*PI()*H89^4*D89/2/G89</f>
+        <v>1.2455001154789414E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3276,11 +3276,11 @@
         <v>178</v>
       </c>
       <c r="B90">
+        <f t="shared" si="2"/>
+        <v>10680</v>
+      </c>
+      <c r="C90">
         <f t="shared" si="3"/>
-        <v>10680</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
       <c r="D90">
@@ -3299,8 +3299,8 @@
         <v>0.01</v>
       </c>
       <c r="I90">
-        <f t="shared" si="5"/>
-        <v>1.6357016310180621</v>
+        <f>1*PI()*H90^4*D90/2/G90</f>
+        <v>1.2267762232635463E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3308,11 +3308,11 @@
         <v>180</v>
       </c>
       <c r="B91">
+        <f t="shared" si="2"/>
+        <v>10800</v>
+      </c>
+      <c r="C91">
         <f t="shared" si="3"/>
-        <v>10800</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D91">
@@ -3331,8 +3331,8 @@
         <v>0.01</v>
       </c>
       <c r="I91">
-        <f t="shared" si="5"/>
-        <v>1.6239311305426123</v>
+        <f>1*PI()*H91^4*D91/2/G91</f>
+        <v>1.2179483479069589E-2</v>
       </c>
     </row>
   </sheetData>
